--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem2/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem2/123/word_level_predictions_123.xlsx
@@ -577,81 +577,81 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>IMU calibration required Calibrate IMU .</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>required</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>IMU calibration required Calibrate IMU .</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>required</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -814,730 +814,730 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>GEO:</t>
         </is>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>are</t>
         </is>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" t="n">
         <v>2</v>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" t="n">
         <v>3</v>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" t="n">
         <v>4</v>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Warning</t>
         </is>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" t="n">
         <v>5</v>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" t="n">
         <v>6</v>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>(Airport</t>
         </is>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" t="n">
         <v>7</v>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Class</t>
         </is>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" t="n">
         <v>8</v>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Airspace</t>
         </is>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" t="n">
         <v>9</v>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Unpaved</t>
         </is>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" t="n">
         <v>10</v>
       </c>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C19" s="2" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Airports</t>
         </is>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D19" t="n">
         <v>11</v>
       </c>
-      <c r="E19" s="2" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" t="n">
         <v>12</v>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>Plant)</t>
         </is>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" t="n">
         <v>13</v>
       </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3050,312 +3050,312 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C51" s="2" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E51" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K51" t="b">
-        <v>1</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C52" s="2" t="inlineStr">
         <is>
           <t>Recorder</t>
         </is>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E52" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F52" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K52" t="b">
-        <v>1</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="G52" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C53" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E53" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F53" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K53" t="b">
-        <v>1</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="G53" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C54" s="2" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E54" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F54" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K54" t="b">
-        <v>1</v>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="G54" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C55" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D55" t="n">
+      <c r="D55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E55" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F55" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K55" t="b">
-        <v>1</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="G55" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C56" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D56" t="n">
+      <c r="D56" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E56" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F56" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K56" t="b">
-        <v>1</v>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="G56" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10977,7 +10977,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G203" t="b">
@@ -11001,57 +11001,57 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="n">
+      <c r="A204" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B204" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C204" s="2" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D204" t="n">
+      <c r="D204" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E204" t="inlineStr">
+      <c r="E204" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
+      <c r="F204" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G204" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I204" t="b">
-        <v>1</v>
-      </c>
-      <c r="J204" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K204" t="b">
-        <v>1</v>
-      </c>
-      <c r="L204" t="inlineStr">
+      <c r="G204" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J204" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L204" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11266,1040 +11266,1040 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="n">
+      <c r="A209" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B209" t="inlineStr">
+      <c r="B209" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C209" t="inlineStr">
+      <c r="C209" s="2" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D209" t="n">
+      <c r="D209" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E209" t="inlineStr">
+      <c r="E209" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G209" t="b">
-        <v>1</v>
-      </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I209" t="b">
-        <v>1</v>
-      </c>
-      <c r="J209" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K209" t="b">
-        <v>1</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F209" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G209" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H209" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I209" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J209" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K209" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L209" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="n">
+      <c r="A210" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B210" t="inlineStr">
+      <c r="B210" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
+      <c r="C210" s="2" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D210" t="n">
+      <c r="D210" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G210" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I210" t="b">
-        <v>1</v>
-      </c>
-      <c r="J210" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K210" t="b">
-        <v>1</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E210" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F210" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G210" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I210" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J210" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K210" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L210" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="n">
+      <c r="A211" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B211" t="inlineStr">
+      <c r="B211" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr">
+      <c r="C211" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D211" t="n">
+      <c r="D211" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G211" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I211" t="b">
-        <v>1</v>
-      </c>
-      <c r="J211" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K211" t="b">
-        <v>1</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E211" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F211" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G211" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I211" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J211" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K211" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L211" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="n">
+      <c r="A212" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B212" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
+      <c r="C212" s="2" t="inlineStr">
         <is>
           <t>an</t>
         </is>
       </c>
-      <c r="D212" t="n">
+      <c r="D212" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G212" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I212" t="b">
-        <v>1</v>
-      </c>
-      <c r="J212" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K212" t="b">
-        <v>1</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E212" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F212" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G212" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J212" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L212" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="n">
+      <c r="A213" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B213" t="inlineStr">
+      <c r="B213" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
+      <c r="C213" s="2" t="inlineStr">
         <is>
           <t>area</t>
         </is>
       </c>
-      <c r="D213" t="n">
+      <c r="D213" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G213" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I213" t="b">
-        <v>1</v>
-      </c>
-      <c r="J213" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K213" t="b">
-        <v>1</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E213" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F213" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G213" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J213" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L213" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="n">
+      <c r="A214" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="B214" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
+      <c r="C214" s="2" t="inlineStr">
         <is>
           <t>nearby</t>
         </is>
       </c>
-      <c r="D214" t="n">
+      <c r="D214" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G214" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I214" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K214" t="b">
-        <v>1</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E214" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F214" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G214" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J214" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L214" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="n">
+      <c r="A215" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B215" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
+      <c r="C215" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D215" t="n">
+      <c r="D215" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G215" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I215" t="b">
-        <v>1</v>
-      </c>
-      <c r="J215" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K215" t="b">
-        <v>1</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E215" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F215" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G215" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J215" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L215" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="n">
+      <c r="A216" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="B216" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
+      <c r="C216" s="2" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D216" t="n">
+      <c r="D216" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G216" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I216" t="b">
-        <v>1</v>
-      </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K216" t="b">
-        <v>1</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E216" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F216" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G216" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J216" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L216" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="n">
+      <c r="A217" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B217" t="inlineStr">
+      <c r="B217" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
+      <c r="C217" s="2" t="inlineStr">
         <is>
           <t>point</t>
         </is>
       </c>
-      <c r="D217" t="n">
+      <c r="D217" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G217" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I217" t="b">
-        <v>1</v>
-      </c>
-      <c r="J217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K217" t="b">
-        <v>1</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E217" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F217" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G217" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J217" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L217" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="n">
+      <c r="A218" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B218" t="inlineStr">
+      <c r="B218" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
+      <c r="C218" s="2" t="inlineStr">
         <is>
           <t>promptly</t>
         </is>
       </c>
-      <c r="D218" t="n">
+      <c r="D218" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G218" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I218" t="b">
-        <v>1</v>
-      </c>
-      <c r="J218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K218" t="b">
-        <v>1</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E218" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F218" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G218" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J218" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L218" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="n">
+      <c r="A219" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B219" t="inlineStr">
+      <c r="B219" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C219" t="inlineStr">
+      <c r="C219" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D219" t="n">
+      <c r="D219" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G219" t="b">
-        <v>1</v>
-      </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I219" t="b">
-        <v>1</v>
-      </c>
-      <c r="J219" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K219" t="b">
-        <v>1</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E219" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F219" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G219" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H219" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I219" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J219" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K219" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L219" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="n">
+      <c r="A220" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B220" t="inlineStr">
+      <c r="B220" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr">
+      <c r="C220" s="2" t="inlineStr">
         <is>
           <t>fly</t>
         </is>
       </c>
-      <c r="D220" t="n">
+      <c r="D220" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G220" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I220" t="b">
-        <v>1</v>
-      </c>
-      <c r="J220" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K220" t="b">
-        <v>1</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E220" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F220" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G220" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I220" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J220" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K220" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L220" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="n">
+      <c r="A221" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B221" t="inlineStr">
+      <c r="B221" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
+      <c r="C221" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D221" t="n">
+      <c r="D221" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G221" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I221" t="b">
-        <v>1</v>
-      </c>
-      <c r="J221" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K221" t="b">
-        <v>1</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E221" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F221" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G221" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I221" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J221" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K221" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L221" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="n">
+      <c r="A222" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B222" t="inlineStr">
+      <c r="B222" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
+      <c r="C222" s="2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D222" t="n">
+      <c r="D222" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G222" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I222" t="b">
-        <v>1</v>
-      </c>
-      <c r="J222" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K222" t="b">
-        <v>1</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E222" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F222" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G222" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I222" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J222" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K222" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L222" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="n">
+      <c r="A223" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B223" t="inlineStr">
+      <c r="B223" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C223" t="inlineStr">
+      <c r="C223" s="2" t="inlineStr">
         <is>
           <t>wind-free</t>
         </is>
       </c>
-      <c r="D223" t="n">
+      <c r="D223" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G223" t="b">
-        <v>1</v>
-      </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I223" t="b">
-        <v>1</v>
-      </c>
-      <c r="J223" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K223" t="b">
-        <v>1</v>
-      </c>
-      <c r="L223" t="inlineStr">
+      <c r="E223" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F223" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G223" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I223" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J223" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K223" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L223" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="n">
+      <c r="A224" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B224" t="inlineStr">
+      <c r="B224" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C224" t="inlineStr">
+      <c r="C224" s="2" t="inlineStr">
         <is>
           <t>environment</t>
         </is>
       </c>
-      <c r="D224" t="n">
+      <c r="D224" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G224" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I224" t="b">
-        <v>1</v>
-      </c>
-      <c r="J224" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K224" t="b">
-        <v>1</v>
-      </c>
-      <c r="L224" t="inlineStr">
+      <c r="E224" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F224" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G224" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J224" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L224" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="n">
+      <c r="A225" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B225" t="inlineStr">
+      <c r="B225" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C225" t="inlineStr">
+      <c r="C225" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D225" t="n">
+      <c r="D225" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G225" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I225" t="b">
-        <v>1</v>
-      </c>
-      <c r="J225" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K225" t="b">
-        <v>1</v>
-      </c>
-      <c r="L225" t="inlineStr">
+      <c r="E225" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F225" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G225" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J225" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L225" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="n">
+      <c r="A226" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B226" t="inlineStr">
+      <c r="B226" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C226" t="inlineStr">
+      <c r="C226" s="2" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D226" t="n">
+      <c r="D226" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G226" t="b">
-        <v>1</v>
-      </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I226" t="b">
-        <v>1</v>
-      </c>
-      <c r="J226" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K226" t="b">
-        <v>1</v>
-      </c>
-      <c r="L226" t="inlineStr">
+      <c r="E226" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F226" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G226" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H226" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I226" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J226" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K226" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L226" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="n">
+      <c r="A227" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B227" t="inlineStr">
+      <c r="B227" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr">
+      <c r="C227" s="2" t="inlineStr">
         <is>
           <t>flight</t>
         </is>
       </c>
-      <c r="D227" t="n">
+      <c r="D227" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G227" t="b">
-        <v>1</v>
-      </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I227" t="b">
-        <v>1</v>
-      </c>
-      <c r="J227" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K227" t="b">
-        <v>1</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E227" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F227" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G227" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H227" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I227" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J227" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K227" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L227" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="n">
+      <c r="A228" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B228" t="inlineStr">
+      <c r="B228" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C228" t="inlineStr">
+      <c r="C228" s="2" t="inlineStr">
         <is>
           <t>safety</t>
         </is>
       </c>
-      <c r="D228" t="n">
+      <c r="D228" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="E228" t="inlineStr">
+      <c r="E228" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
+      <c r="F228" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G228" t="b">
-        <v>1</v>
-      </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I228" t="b">
-        <v>1</v>
-      </c>
-      <c r="J228" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K228" t="b">
-        <v>1</v>
-      </c>
-      <c r="L228" t="inlineStr">
+      <c r="G228" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H228" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I228" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J228" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K228" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L228" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G236" t="b">
@@ -12717,57 +12717,57 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="n">
+      <c r="A237" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B237" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
+      <c r="C237" s="2" t="inlineStr">
         <is>
           <t>gear</t>
         </is>
       </c>
-      <c r="D237" t="n">
+      <c r="D237" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E237" t="inlineStr">
+      <c r="E237" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
+      <c r="F237" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G237" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I237" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K237" t="b">
-        <v>1</v>
-      </c>
-      <c r="L237" t="inlineStr">
+      <c r="G237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -18130,260 +18130,260 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="n">
+      <c r="A341" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B341" t="inlineStr">
+      <c r="B341" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C341" t="inlineStr">
+      <c r="C341" s="2" t="inlineStr">
         <is>
           <t>Cannot</t>
         </is>
       </c>
-      <c r="D341" t="n">
+      <c r="D341" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E341" t="inlineStr">
+      <c r="E341" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F341" t="inlineStr">
+      <c r="F341" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G341" t="b">
-        <v>1</v>
-      </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I341" t="b">
-        <v>1</v>
-      </c>
-      <c r="J341" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K341" t="b">
-        <v>1</v>
-      </c>
-      <c r="L341" t="inlineStr">
+      <c r="G341" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H341" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I341" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J341" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K341" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L341" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="n">
+      <c r="A342" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B342" t="inlineStr">
+      <c r="B342" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C342" t="inlineStr">
+      <c r="C342" s="2" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D342" t="n">
+      <c r="D342" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E342" t="inlineStr">
+      <c r="E342" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F342" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G342" t="b">
-        <v>1</v>
-      </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I342" t="b">
-        <v>1</v>
-      </c>
-      <c r="J342" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K342" t="b">
-        <v>1</v>
-      </c>
-      <c r="L342" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F342" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G342" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H342" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I342" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J342" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K342" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L342" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="n">
+      <c r="A343" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B343" t="inlineStr">
+      <c r="B343" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C343" t="inlineStr">
+      <c r="C343" s="2" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D343" t="n">
+      <c r="D343" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E343" t="inlineStr">
+      <c r="E343" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F343" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G343" t="b">
-        <v>1</v>
-      </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I343" t="b">
-        <v>1</v>
-      </c>
-      <c r="J343" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K343" t="b">
-        <v>1</v>
-      </c>
-      <c r="L343" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F343" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G343" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H343" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I343" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J343" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K343" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L343" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="344">
-      <c r="A344" t="n">
+      <c r="A344" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B344" t="inlineStr">
+      <c r="B344" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C344" t="inlineStr">
+      <c r="C344" s="2" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D344" t="n">
+      <c r="D344" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E344" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F344" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G344" t="b">
-        <v>1</v>
-      </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I344" t="b">
-        <v>1</v>
-      </c>
-      <c r="J344" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K344" t="b">
-        <v>1</v>
-      </c>
-      <c r="L344" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E344" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F344" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G344" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H344" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I344" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J344" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K344" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L344" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="n">
+      <c r="A345" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B345" t="inlineStr">
+      <c r="B345" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C345" t="inlineStr">
+      <c r="C345" s="2" t="inlineStr">
         <is>
           <t>support</t>
         </is>
       </c>
-      <c r="D345" t="n">
+      <c r="D345" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E345" t="inlineStr">
+      <c r="E345" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F345" t="inlineStr">
+      <c r="F345" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G345" t="b">
-        <v>1</v>
-      </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I345" t="b">
-        <v>1</v>
-      </c>
-      <c r="J345" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K345" t="b">
-        <v>1</v>
-      </c>
-      <c r="L345" t="inlineStr">
+      <c r="G345" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H345" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I345" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J345" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K345" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L345" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -23642,210 +23642,210 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" t="n">
+      <c r="A447" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B447" t="inlineStr">
+      <c r="B447" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C447" t="inlineStr">
+      <c r="C447" s="2" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D447" t="n">
+      <c r="D447" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E447" t="inlineStr">
+      <c r="E447" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F447" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G447" t="b">
-        <v>1</v>
-      </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I447" t="b">
-        <v>1</v>
-      </c>
-      <c r="J447" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K447" t="b">
-        <v>1</v>
-      </c>
-      <c r="L447" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F447" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G447" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H447" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I447" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J447" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K447" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L447" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="448">
-      <c r="A448" t="n">
+      <c r="A448" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B448" t="inlineStr">
+      <c r="B448" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C448" t="inlineStr">
+      <c r="C448" s="2" t="inlineStr">
         <is>
           <t>Less</t>
         </is>
       </c>
-      <c r="D448" t="n">
-        <v>1</v>
-      </c>
-      <c r="E448" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F448" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G448" t="b">
-        <v>1</v>
-      </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I448" t="b">
-        <v>1</v>
-      </c>
-      <c r="J448" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K448" t="b">
-        <v>1</v>
-      </c>
-      <c r="L448" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="D448" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E448" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F448" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G448" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H448" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I448" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J448" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K448" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L448" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="449">
-      <c r="A449" t="n">
+      <c r="A449" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B449" t="inlineStr">
+      <c r="B449" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C449" t="inlineStr">
+      <c r="C449" s="2" t="inlineStr">
         <is>
           <t>than</t>
         </is>
       </c>
-      <c r="D449" t="n">
+      <c r="D449" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E449" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F449" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G449" t="b">
-        <v>1</v>
-      </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I449" t="b">
-        <v>1</v>
-      </c>
-      <c r="J449" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K449" t="b">
-        <v>1</v>
-      </c>
-      <c r="L449" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E449" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F449" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G449" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H449" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I449" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J449" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K449" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L449" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="450">
-      <c r="A450" t="n">
+      <c r="A450" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B450" t="inlineStr">
+      <c r="B450" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C450" t="inlineStr">
+      <c r="C450" s="2" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D450" t="n">
+      <c r="D450" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E450" t="inlineStr">
+      <c r="E450" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F450" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G450" t="b">
-        <v>1</v>
-      </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I450" t="b">
-        <v>1</v>
-      </c>
-      <c r="J450" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K450" t="b">
-        <v>1</v>
-      </c>
-      <c r="L450" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F450" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G450" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H450" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I450" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J450" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K450" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L450" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -23873,7 +23873,7 @@
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G451" t="b">
@@ -23897,7 +23897,7 @@
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -24162,106 +24162,106 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="n">
+      <c r="A457" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B457" t="inlineStr">
+      <c r="B457" s="2" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C457" t="inlineStr">
+      <c r="C457" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D457" t="n">
+      <c r="D457" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E457" t="inlineStr">
+      <c r="E457" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F457" t="inlineStr">
+      <c r="F457" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G457" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I457" t="b">
-        <v>1</v>
-      </c>
-      <c r="J457" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K457" t="b">
-        <v>1</v>
-      </c>
-      <c r="L457" t="inlineStr">
+      <c r="G457" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I457" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J457" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K457" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L457" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" t="n">
+      <c r="A458" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B458" t="inlineStr">
+      <c r="B458" s="2" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C458" t="inlineStr">
+      <c r="C458" s="2" t="inlineStr">
         <is>
           <t>Interference</t>
         </is>
       </c>
-      <c r="D458" t="n">
-        <v>1</v>
-      </c>
-      <c r="E458" t="inlineStr">
+      <c r="D458" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E458" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F458" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G458" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I458" t="b">
-        <v>1</v>
-      </c>
-      <c r="J458" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K458" t="b">
-        <v>1</v>
-      </c>
-      <c r="L458" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F458" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G458" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I458" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J458" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K458" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L458" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem2/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem2/123/word_level_predictions_123.xlsx
@@ -577,7 +577,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -601,57 +601,57 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>IMU calibration required Calibrate IMU .</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>required</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="G4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -814,730 +814,730 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="A8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>GEO:</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="G8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="A9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="D9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>are</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>are</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Zone</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>4</v>
-      </c>
-      <c r="E12" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>(Airport</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="G15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Warning</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>5</v>
-      </c>
-      <c r="E13" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>Airspace</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Zone</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>6</v>
-      </c>
-      <c r="E14" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>Unpaved</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Airports</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>(Airport</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>7</v>
-      </c>
-      <c r="E15" t="inlineStr">
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>8</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Airspace</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>9</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Unpaved</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>10</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Airports</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>11</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K19" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>12</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>Plant)</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -3050,312 +3050,312 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" t="n">
         <v>4</v>
       </c>
-      <c r="B51" s="2" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="D51" s="2" t="n">
+      <c r="D51" t="n">
         <v>3</v>
       </c>
-      <c r="E51" s="2" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F51" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G51" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L51" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="A52" t="n">
         <v>4</v>
       </c>
-      <c r="B52" s="2" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C52" s="2" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>Recorder</t>
         </is>
       </c>
-      <c r="D52" s="2" t="n">
+      <c r="D52" t="n">
         <v>4</v>
       </c>
-      <c r="E52" s="2" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F52" s="2" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G52" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L52" s="2" t="inlineStr">
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="A53" t="n">
         <v>4</v>
       </c>
-      <c r="B53" s="2" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C53" s="2" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="D53" s="2" t="n">
+      <c r="D53" t="n">
         <v>5</v>
       </c>
-      <c r="E53" s="2" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F53" s="2" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G53" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L53" s="2" t="inlineStr">
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="A54" t="n">
         <v>4</v>
       </c>
-      <c r="B54" s="2" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C54" s="2" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="D54" s="2" t="n">
+      <c r="D54" t="n">
         <v>6</v>
       </c>
-      <c r="E54" s="2" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F54" s="2" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G54" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L54" s="2" t="inlineStr">
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K54" t="b">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
+      <c r="A55" t="n">
         <v>4</v>
       </c>
-      <c r="B55" s="2" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C55" s="2" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D55" s="2" t="n">
+      <c r="D55" t="n">
         <v>7</v>
       </c>
-      <c r="E55" s="2" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F55" s="2" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G55" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L55" s="2" t="inlineStr">
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
+      <c r="A56" t="n">
         <v>4</v>
       </c>
-      <c r="B56" s="2" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C56" s="2" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D56" s="2" t="n">
+      <c r="D56" t="n">
         <v>8</v>
       </c>
-      <c r="E56" s="2" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F56" s="2" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G56" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L56" s="2" t="inlineStr">
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K56" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10977,81 +10977,81 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G203" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I203" t="b">
+        <v>1</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K203" t="b">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>19</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Running Flight Simulator Restart aircraft to take off .</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>7</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G203" t="b">
-        <v>1</v>
-      </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I203" t="b">
-        <v>1</v>
-      </c>
-      <c r="J203" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K203" t="b">
-        <v>1</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B204" s="2" t="inlineStr">
-        <is>
-          <t>Running Flight Simulator Restart aircraft to take off .</t>
-        </is>
-      </c>
-      <c r="C204" s="2" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D204" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E204" s="2" t="inlineStr">
+      <c r="F204" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F204" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G204" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J204" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L204" s="2" t="inlineStr">
+      <c r="G204" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I204" t="b">
+        <v>1</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K204" t="b">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11266,1040 +11266,1040 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="2" t="n">
+      <c r="A209" t="n">
         <v>20</v>
       </c>
-      <c r="B209" s="2" t="inlineStr">
+      <c r="B209" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C209" s="2" t="inlineStr">
+      <c r="C209" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D209" s="2" t="n">
+      <c r="D209" t="n">
         <v>3</v>
       </c>
-      <c r="E209" s="2" t="inlineStr">
+      <c r="E209" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F209" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G209" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H209" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I209" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J209" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K209" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L209" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G209" t="b">
+        <v>1</v>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I209" t="b">
+        <v>1</v>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K209" t="b">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="2" t="n">
+      <c r="A210" t="n">
         <v>20</v>
       </c>
-      <c r="B210" s="2" t="inlineStr">
+      <c r="B210" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C210" s="2" t="inlineStr">
+      <c r="C210" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D210" s="2" t="n">
+      <c r="D210" t="n">
         <v>4</v>
       </c>
-      <c r="E210" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F210" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G210" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I210" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J210" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K210" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L210" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G210" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I210" t="b">
+        <v>1</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K210" t="b">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="2" t="n">
+      <c r="A211" t="n">
         <v>20</v>
       </c>
-      <c r="B211" s="2" t="inlineStr">
+      <c r="B211" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C211" s="2" t="inlineStr">
+      <c r="C211" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D211" s="2" t="n">
+      <c r="D211" t="n">
         <v>5</v>
       </c>
-      <c r="E211" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F211" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G211" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I211" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J211" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K211" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L211" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G211" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I211" t="b">
+        <v>1</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K211" t="b">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="2" t="n">
+      <c r="A212" t="n">
         <v>20</v>
       </c>
-      <c r="B212" s="2" t="inlineStr">
+      <c r="B212" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C212" s="2" t="inlineStr">
+      <c r="C212" t="inlineStr">
         <is>
           <t>an</t>
         </is>
       </c>
-      <c r="D212" s="2" t="n">
+      <c r="D212" t="n">
         <v>6</v>
       </c>
-      <c r="E212" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F212" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G212" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L212" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G212" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I212" t="b">
+        <v>1</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K212" t="b">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="n">
+      <c r="A213" t="n">
         <v>20</v>
       </c>
-      <c r="B213" s="2" t="inlineStr">
+      <c r="B213" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C213" s="2" t="inlineStr">
+      <c r="C213" t="inlineStr">
         <is>
           <t>area</t>
         </is>
       </c>
-      <c r="D213" s="2" t="n">
+      <c r="D213" t="n">
         <v>7</v>
       </c>
-      <c r="E213" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F213" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G213" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J213" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L213" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G213" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I213" t="b">
+        <v>1</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K213" t="b">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="n">
+      <c r="A214" t="n">
         <v>20</v>
       </c>
-      <c r="B214" s="2" t="inlineStr">
+      <c r="B214" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C214" s="2" t="inlineStr">
+      <c r="C214" t="inlineStr">
         <is>
           <t>nearby</t>
         </is>
       </c>
-      <c r="D214" s="2" t="n">
+      <c r="D214" t="n">
         <v>8</v>
       </c>
-      <c r="E214" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F214" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G214" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J214" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L214" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I214" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K214" t="b">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="2" t="n">
+      <c r="A215" t="n">
         <v>20</v>
       </c>
-      <c r="B215" s="2" t="inlineStr">
+      <c r="B215" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C215" s="2" t="inlineStr">
+      <c r="C215" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D215" s="2" t="n">
+      <c r="D215" t="n">
         <v>9</v>
       </c>
-      <c r="E215" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F215" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G215" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L215" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G215" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I215" t="b">
+        <v>1</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K215" t="b">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="2" t="n">
+      <c r="A216" t="n">
         <v>20</v>
       </c>
-      <c r="B216" s="2" t="inlineStr">
+      <c r="B216" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C216" s="2" t="inlineStr">
+      <c r="C216" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D216" s="2" t="n">
+      <c r="D216" t="n">
         <v>10</v>
       </c>
-      <c r="E216" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F216" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G216" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J216" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L216" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G216" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I216" t="b">
+        <v>1</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K216" t="b">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="2" t="n">
+      <c r="A217" t="n">
         <v>20</v>
       </c>
-      <c r="B217" s="2" t="inlineStr">
+      <c r="B217" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C217" s="2" t="inlineStr">
+      <c r="C217" t="inlineStr">
         <is>
           <t>point</t>
         </is>
       </c>
-      <c r="D217" s="2" t="n">
+      <c r="D217" t="n">
         <v>11</v>
       </c>
-      <c r="E217" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F217" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G217" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J217" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L217" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G217" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I217" t="b">
+        <v>1</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K217" t="b">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="2" t="n">
+      <c r="A218" t="n">
         <v>20</v>
       </c>
-      <c r="B218" s="2" t="inlineStr">
+      <c r="B218" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C218" s="2" t="inlineStr">
+      <c r="C218" t="inlineStr">
         <is>
           <t>promptly</t>
         </is>
       </c>
-      <c r="D218" s="2" t="n">
+      <c r="D218" t="n">
         <v>12</v>
       </c>
-      <c r="E218" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F218" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G218" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L218" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G218" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I218" t="b">
+        <v>1</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K218" t="b">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="2" t="n">
+      <c r="A219" t="n">
         <v>20</v>
       </c>
-      <c r="B219" s="2" t="inlineStr">
+      <c r="B219" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C219" s="2" t="inlineStr">
+      <c r="C219" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D219" s="2" t="n">
+      <c r="D219" t="n">
         <v>13</v>
       </c>
-      <c r="E219" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F219" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G219" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H219" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I219" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J219" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K219" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L219" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G219" t="b">
+        <v>1</v>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I219" t="b">
+        <v>1</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K219" t="b">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="2" t="n">
+      <c r="A220" t="n">
         <v>20</v>
       </c>
-      <c r="B220" s="2" t="inlineStr">
+      <c r="B220" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C220" s="2" t="inlineStr">
+      <c r="C220" t="inlineStr">
         <is>
           <t>fly</t>
         </is>
       </c>
-      <c r="D220" s="2" t="n">
+      <c r="D220" t="n">
         <v>14</v>
       </c>
-      <c r="E220" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F220" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G220" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I220" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J220" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K220" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L220" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G220" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I220" t="b">
+        <v>1</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K220" t="b">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="2" t="n">
+      <c r="A221" t="n">
         <v>20</v>
       </c>
-      <c r="B221" s="2" t="inlineStr">
+      <c r="B221" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C221" s="2" t="inlineStr">
+      <c r="C221" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D221" s="2" t="n">
+      <c r="D221" t="n">
         <v>15</v>
       </c>
-      <c r="E221" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F221" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G221" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I221" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J221" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K221" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L221" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G221" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I221" t="b">
+        <v>1</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K221" t="b">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="2" t="n">
+      <c r="A222" t="n">
         <v>20</v>
       </c>
-      <c r="B222" s="2" t="inlineStr">
+      <c r="B222" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C222" s="2" t="inlineStr">
+      <c r="C222" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D222" s="2" t="n">
+      <c r="D222" t="n">
         <v>16</v>
       </c>
-      <c r="E222" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F222" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G222" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I222" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J222" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K222" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L222" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G222" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I222" t="b">
+        <v>1</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K222" t="b">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="2" t="n">
+      <c r="A223" t="n">
         <v>20</v>
       </c>
-      <c r="B223" s="2" t="inlineStr">
+      <c r="B223" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C223" s="2" t="inlineStr">
+      <c r="C223" t="inlineStr">
         <is>
           <t>wind-free</t>
         </is>
       </c>
-      <c r="D223" s="2" t="n">
+      <c r="D223" t="n">
         <v>17</v>
       </c>
-      <c r="E223" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F223" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G223" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H223" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I223" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J223" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K223" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L223" s="2" t="inlineStr">
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G223" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I223" t="b">
+        <v>1</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K223" t="b">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="2" t="n">
+      <c r="A224" t="n">
         <v>20</v>
       </c>
-      <c r="B224" s="2" t="inlineStr">
+      <c r="B224" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C224" s="2" t="inlineStr">
+      <c r="C224" t="inlineStr">
         <is>
           <t>environment</t>
         </is>
       </c>
-      <c r="D224" s="2" t="n">
+      <c r="D224" t="n">
         <v>18</v>
       </c>
-      <c r="E224" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F224" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G224" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I224" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J224" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K224" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L224" s="2" t="inlineStr">
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G224" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I224" t="b">
+        <v>1</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K224" t="b">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="2" t="n">
+      <c r="A225" t="n">
         <v>20</v>
       </c>
-      <c r="B225" s="2" t="inlineStr">
+      <c r="B225" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C225" s="2" t="inlineStr">
+      <c r="C225" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D225" s="2" t="n">
+      <c r="D225" t="n">
         <v>19</v>
       </c>
-      <c r="E225" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F225" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G225" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J225" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L225" s="2" t="inlineStr">
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G225" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I225" t="b">
+        <v>1</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K225" t="b">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="2" t="n">
+      <c r="A226" t="n">
         <v>20</v>
       </c>
-      <c r="B226" s="2" t="inlineStr">
+      <c r="B226" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C226" s="2" t="inlineStr">
+      <c r="C226" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D226" s="2" t="n">
+      <c r="D226" t="n">
         <v>20</v>
       </c>
-      <c r="E226" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F226" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G226" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H226" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I226" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J226" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K226" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L226" s="2" t="inlineStr">
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G226" t="b">
+        <v>1</v>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I226" t="b">
+        <v>1</v>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K226" t="b">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="2" t="n">
+      <c r="A227" t="n">
         <v>20</v>
       </c>
-      <c r="B227" s="2" t="inlineStr">
+      <c r="B227" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C227" s="2" t="inlineStr">
+      <c r="C227" t="inlineStr">
         <is>
           <t>flight</t>
         </is>
       </c>
-      <c r="D227" s="2" t="n">
+      <c r="D227" t="n">
         <v>21</v>
       </c>
-      <c r="E227" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F227" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G227" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H227" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I227" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J227" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K227" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L227" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G227" t="b">
+        <v>1</v>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I227" t="b">
+        <v>1</v>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K227" t="b">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="2" t="n">
+      <c r="A228" t="n">
         <v>20</v>
       </c>
-      <c r="B228" s="2" t="inlineStr">
+      <c r="B228" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C228" s="2" t="inlineStr">
+      <c r="C228" t="inlineStr">
         <is>
           <t>safety</t>
         </is>
       </c>
-      <c r="D228" s="2" t="n">
+      <c r="D228" t="n">
         <v>22</v>
       </c>
-      <c r="E228" s="2" t="inlineStr">
+      <c r="E228" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F228" s="2" t="inlineStr">
+      <c r="F228" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G228" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H228" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I228" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J228" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K228" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L228" s="2" t="inlineStr">
+      <c r="G228" t="b">
+        <v>1</v>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I228" t="b">
+        <v>1</v>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K228" t="b">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -12693,81 +12693,81 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>21</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>gear</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>7</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B237" s="2" t="inlineStr">
-        <is>
-          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
-        </is>
-      </c>
-      <c r="C237" s="2" t="inlineStr">
-        <is>
-          <t>gear</t>
-        </is>
-      </c>
-      <c r="D237" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E237" s="2" t="inlineStr">
+      <c r="F237" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F237" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L237" s="2" t="inlineStr">
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K237" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -18130,260 +18130,260 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="2" t="n">
+      <c r="A341" t="n">
         <v>30</v>
       </c>
-      <c r="B341" s="2" t="inlineStr">
+      <c r="B341" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C341" s="2" t="inlineStr">
+      <c r="C341" t="inlineStr">
         <is>
           <t>Cannot</t>
         </is>
       </c>
-      <c r="D341" s="2" t="n">
+      <c r="D341" t="n">
         <v>2</v>
       </c>
-      <c r="E341" s="2" t="inlineStr">
+      <c r="E341" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F341" s="2" t="inlineStr">
+      <c r="F341" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G341" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H341" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I341" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J341" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K341" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L341" s="2" t="inlineStr">
+      <c r="G341" t="b">
+        <v>1</v>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I341" t="b">
+        <v>1</v>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K341" t="b">
+        <v>1</v>
+      </c>
+      <c r="L341" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="2" t="n">
+      <c r="A342" t="n">
         <v>30</v>
       </c>
-      <c r="B342" s="2" t="inlineStr">
+      <c r="B342" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C342" s="2" t="inlineStr">
+      <c r="C342" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D342" s="2" t="n">
+      <c r="D342" t="n">
         <v>3</v>
       </c>
-      <c r="E342" s="2" t="inlineStr">
+      <c r="E342" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F342" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G342" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H342" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I342" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J342" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K342" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L342" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G342" t="b">
+        <v>1</v>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I342" t="b">
+        <v>1</v>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K342" t="b">
+        <v>1</v>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="2" t="n">
+      <c r="A343" t="n">
         <v>30</v>
       </c>
-      <c r="B343" s="2" t="inlineStr">
+      <c r="B343" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C343" s="2" t="inlineStr">
+      <c r="C343" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D343" s="2" t="n">
+      <c r="D343" t="n">
         <v>4</v>
       </c>
-      <c r="E343" s="2" t="inlineStr">
+      <c r="E343" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F343" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G343" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H343" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I343" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J343" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K343" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L343" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G343" t="b">
+        <v>1</v>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I343" t="b">
+        <v>1</v>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K343" t="b">
+        <v>1</v>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="2" t="n">
+      <c r="A344" t="n">
         <v>30</v>
       </c>
-      <c r="B344" s="2" t="inlineStr">
+      <c r="B344" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C344" s="2" t="inlineStr">
+      <c r="C344" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D344" s="2" t="n">
+      <c r="D344" t="n">
         <v>5</v>
       </c>
-      <c r="E344" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F344" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G344" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H344" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I344" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J344" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K344" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L344" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G344" t="b">
+        <v>1</v>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I344" t="b">
+        <v>1</v>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K344" t="b">
+        <v>1</v>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="2" t="n">
+      <c r="A345" t="n">
         <v>30</v>
       </c>
-      <c r="B345" s="2" t="inlineStr">
+      <c r="B345" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C345" s="2" t="inlineStr">
+      <c r="C345" t="inlineStr">
         <is>
           <t>support</t>
         </is>
       </c>
-      <c r="D345" s="2" t="n">
+      <c r="D345" t="n">
         <v>6</v>
       </c>
-      <c r="E345" s="2" t="inlineStr">
+      <c r="E345" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F345" s="2" t="inlineStr">
+      <c r="F345" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G345" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H345" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I345" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J345" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K345" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L345" s="2" t="inlineStr">
+      <c r="G345" t="b">
+        <v>1</v>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I345" t="b">
+        <v>1</v>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K345" t="b">
+        <v>1</v>
+      </c>
+      <c r="L345" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -23642,210 +23642,210 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" s="2" t="n">
+      <c r="A447" t="n">
         <v>41</v>
       </c>
-      <c r="B447" s="2" t="inlineStr">
+      <c r="B447" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C447" s="2" t="inlineStr">
+      <c r="C447" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D447" s="2" t="n">
+      <c r="D447" t="n">
         <v>0</v>
       </c>
-      <c r="E447" s="2" t="inlineStr">
+      <c r="E447" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F447" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G447" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H447" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I447" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J447" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K447" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L447" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G447" t="b">
+        <v>1</v>
+      </c>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I447" t="b">
+        <v>1</v>
+      </c>
+      <c r="J447" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K447" t="b">
+        <v>1</v>
+      </c>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="448">
-      <c r="A448" s="2" t="n">
+      <c r="A448" t="n">
         <v>41</v>
       </c>
-      <c r="B448" s="2" t="inlineStr">
+      <c r="B448" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C448" s="2" t="inlineStr">
+      <c r="C448" t="inlineStr">
         <is>
           <t>Less</t>
         </is>
       </c>
-      <c r="D448" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E448" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F448" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G448" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H448" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I448" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J448" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K448" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L448" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="D448" t="n">
+        <v>1</v>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G448" t="b">
+        <v>1</v>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I448" t="b">
+        <v>1</v>
+      </c>
+      <c r="J448" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K448" t="b">
+        <v>1</v>
+      </c>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="449">
-      <c r="A449" s="2" t="n">
+      <c r="A449" t="n">
         <v>41</v>
       </c>
-      <c r="B449" s="2" t="inlineStr">
+      <c r="B449" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C449" s="2" t="inlineStr">
+      <c r="C449" t="inlineStr">
         <is>
           <t>than</t>
         </is>
       </c>
-      <c r="D449" s="2" t="n">
+      <c r="D449" t="n">
         <v>2</v>
       </c>
-      <c r="E449" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F449" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G449" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H449" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I449" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J449" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K449" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L449" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G449" t="b">
+        <v>1</v>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I449" t="b">
+        <v>1</v>
+      </c>
+      <c r="J449" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K449" t="b">
+        <v>1</v>
+      </c>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="450">
-      <c r="A450" s="2" t="n">
+      <c r="A450" t="n">
         <v>41</v>
       </c>
-      <c r="B450" s="2" t="inlineStr">
+      <c r="B450" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C450" s="2" t="inlineStr">
+      <c r="C450" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D450" s="2" t="n">
+      <c r="D450" t="n">
         <v>3</v>
       </c>
-      <c r="E450" s="2" t="inlineStr">
+      <c r="E450" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F450" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G450" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H450" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I450" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J450" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K450" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L450" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G450" t="b">
+        <v>1</v>
+      </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I450" t="b">
+        <v>1</v>
+      </c>
+      <c r="J450" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K450" t="b">
+        <v>1</v>
+      </c>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -23873,7 +23873,7 @@
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G451" t="b">
@@ -23897,7 +23897,7 @@
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24162,106 +24162,106 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="2" t="n">
+      <c r="A457" t="n">
         <v>42</v>
       </c>
-      <c r="B457" s="2" t="inlineStr">
+      <c r="B457" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C457" s="2" t="inlineStr">
+      <c r="C457" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D457" s="2" t="n">
+      <c r="D457" t="n">
         <v>0</v>
       </c>
-      <c r="E457" s="2" t="inlineStr">
+      <c r="E457" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F457" s="2" t="inlineStr">
+      <c r="F457" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G457" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I457" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J457" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K457" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L457" s="2" t="inlineStr">
+      <c r="G457" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I457" t="b">
+        <v>1</v>
+      </c>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K457" t="b">
+        <v>1</v>
+      </c>
+      <c r="L457" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" s="2" t="n">
+      <c r="A458" t="n">
         <v>42</v>
       </c>
-      <c r="B458" s="2" t="inlineStr">
+      <c r="B458" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C458" s="2" t="inlineStr">
+      <c r="C458" t="inlineStr">
         <is>
           <t>Interference</t>
         </is>
       </c>
-      <c r="D458" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E458" s="2" t="inlineStr">
+      <c r="D458" t="n">
+        <v>1</v>
+      </c>
+      <c r="E458" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F458" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G458" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I458" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J458" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K458" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L458" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G458" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I458" t="b">
+        <v>1</v>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K458" t="b">
+        <v>1</v>
+      </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
